--- a/medicine/Mort/Décès_en_1935/Décès_en_1935.xlsx
+++ b/medicine/Mort/Décès_en_1935/Décès_en_1935.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1935</t>
+          <t>Décès_en_1935</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1935</t>
+          <t>Décès_en_1935</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,16 +540,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Gabriel Biessy, peintre français (° 25 mars 1854).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Gabriel Biessy, peintre français (° 25 mars 1854).
 Édouard Brun, peintre paysagiste français (° 3 avril 1860).
 Louis Chassevent, écrivain, peintre et critique d'art français (° 20 septembre 1864).
 Jules Jacques Labatut, sculpteur français (° 30 juillet 1851).
 Andrea Landini, peintre italien (° 10 décembre 1847).
 Luigi Morgari, peintre italien (° 1857).
-Frans Louis Wiemans, compositeur, pianiste, organiste, violoniste et ingénieur indonésien (° 13 janvier 1889).
-Janvier
-6 janvier : Cecil Aldin, peintre et illustrateur anglais (° 28 avril 1870).
+Frans Louis Wiemans, compositeur, pianiste, organiste, violoniste et ingénieur indonésien (° 13 janvier 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1935</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1935</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6 janvier : Cecil Aldin, peintre et illustrateur anglais (° 28 avril 1870).
 7 janvier : José Mange, peintre paysagiste et un poète félibre français (° 10 octobre 1866).
 8 janvier : Hubert Vos, peintre néerlandais (° 15 février 1855).
 10 janvier : Virginie Demont-Breton, peintre française (° 26 juillet 1859).
@@ -548,9 +599,43 @@
 28 janvier :
 Mikhaïl Ippolitov-Ivanov, compositeur et pédagogue russe puis soviétique (° 19 novembre 1859).
 Lazar Meyer, peintre français (° 20 janvier 1847).
-31 janvier : Gabriel Ferrand, orientaliste français (° 22 janvier 1864).
-Février
-2 février : Armand Coussens, peintre, graveur et illustrateur  français (° 4 décembre 1881).
+31 janvier : Gabriel Ferrand, orientaliste français (° 22 janvier 1864).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1935</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1935</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Armand Coussens, peintre, graveur et illustrateur  français (° 4 décembre 1881).
 5 février : Heinrich Harder, artiste allemand (° 2 juin 1858).
 7 février :
 Johannes Martini, peintre et illustrateur allemand (° 9 juin 1866).
@@ -561,9 +646,43 @@
 14 février : Pierre Paulin Andrieu, cardinal français, archevêque de Bordeaux (° 8 décembre 1849).
 15 février : Alekseï Morgounov, peintre russe puis soviétique (° 21 octobre 1884).
 21 février : Roland-Marie Gérardin, peintre français (° 18 novembre 1907).
-28 février : Chiquinha Gonzaga, compositrice, pianiste et la première femme chef d'orchestre brésilienne (° 17 octobre 1847).
-Mars
-1er mars : William Degouve de Nuncques, peintre belge (° 28 février 1867).
+28 février : Chiquinha Gonzaga, compositrice, pianiste et la première femme chef d'orchestre brésilienne (° 17 octobre 1847).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1935</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1935</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : William Degouve de Nuncques, peintre belge (° 28 février 1867).
 4 mars : Anne-Marie Bernay, peintre française (° 3 juin 1889).
 5 mars : Armand Lavergne, politicien canadien (° 21 février 1880).
 7 mars : Gustaw Gwozdecki, peintre, sculpteur et écrivain  polonais (° 23 mai 1885).
@@ -573,9 +692,43 @@
 18 mars : Friedrich von Szápáry, diplomate austro-hongrois puis autrichien (° 5 novembre 1869).
 20 mars :
 Émile Artus Boeswillwald, peintre français (° 2 février 1873).
-Gyoshū Hayami, peintre japonais du style nihonga (° 2 août 1894).
-Avril
-2 avril : Rémy Cogghe, peintre belge (° 31 octobre 1854).
+Gyoshū Hayami, peintre japonais du style nihonga (° 2 août 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1935</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1935</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Rémy Cogghe, peintre belge (° 31 octobre 1854).
 9 avril : Ludwig Deutsch, peintre orientaliste autrichien naturalisé français (° 13 mai 1855).
 13 avril : Marius Gourdault, peintre impressionniste français (° 29 août 1859).
 14 avril : Emmy Noether, Mathématicienne allemande (° 23 mars 1882).
@@ -588,9 +741,43 @@
 22 avril : Richard Paraire, peintre et photographe français (° 30 janvier 1869).
 23 avril : Gigi Chessa, peintre, architecte, décorateur, et potier (peintre de céramique) italien (° 15 mai 1898).
 29 avril : Herman Kruyder, peintre néerlandais (° 7 juin 1881).
-30 avril : Maurice Bompard, peintre français (° 11 février 1857).
-Mai
-1er mai : Henri Pélissier, coureur cycliste français (° 22 janvier 1889).
+30 avril : Maurice Bompard, peintre français (° 11 février 1857).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1935</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1935</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Henri Pélissier, coureur cycliste français (° 22 janvier 1889).
 5 mai : Augusto Sezanne, peintre, architecte, céramiste, dessinateur, lithographe et illustrateur italien (° 31 août 1856).
 6 mai : Kate Edger, universitaire néo-zélandaise (° 6 janvier 1857).
 10 mai :
@@ -606,18 +793,86 @@
 25 mai : Jelka Rosen, peintre allemande (° 30 décembre 1868).
 26 mai : Marie Diéterle, peintre française (° 19 avril 1856).
 29 mai : Josef Suk, compositeur et violoniste tchèque (° 4 janvier 1874).
-31 mai : Bernhard Britz, coureur cycliste suédois (° 27 mars 1906).
-Juin
-3 juin : Wilfrid North, acteur et réalisateur anglais (° 16 janvier 1863).
+31 mai : Bernhard Britz, coureur cycliste suédois (° 27 mars 1906).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1935</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1935</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3 juin : Wilfrid North, acteur et réalisateur anglais (° 16 janvier 1863).
 5 juin : Alexandre Martynov, homme politique russe puis soviétique (° 12 décembre 1865).
 6 juin : George Grossmith Jr., acteur et scénariste britannique (° 11 mai 1874).
 7 juin : Elizabeth McCombs, femme politique néo-zélandaise (° 19 novembre 1873).
 24 juin :
 Carlos Gardel, chanteur de tango argentin (° 11 décembre 1890).
 Hermann Groeber, peintre allemand (° 17 juillet 1865).
-25 juin : Adrien de Witte, peintre et graveur belge (° 2 août 1850).
-Juillet
-3 juillet : André Citroën, fondateur français de la marque (° 5 février 1878).
+25 juin : Adrien de Witte, peintre et graveur belge (° 2 août 1850).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1935</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1935</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3 juillet : André Citroën, fondateur français de la marque (° 5 février 1878).
 12 juillet : Alfred Dreyfus, officier français, voir l'affaire Dreyfus (° 9 octobre 1859).
 14 juillet : Francisco Cepeda, coureur cycliste espagnol (° 8 mars 1906).
 17 juillet :
@@ -626,9 +881,43 @@
 18 juillet : George Clift King, maire de Calgary.
 19 juillet : Marthe Hanau, femme d'affaires française (° 1er janvier 1886).
 24 juillet : Adrienne Ball-Demont, peintre et sculptrice française (° 16 mars 1886).
-29 juillet : Hippolyte de La Hamelinaye, militaire et ingénieur forestier français (° 19 mars 1861).
-Août
-6 août : Alexander Winkler, pianiste et un compositeur russe d’origine allemande (° 3 mars 1865).
+29 juillet : Hippolyte de La Hamelinaye, militaire et ingénieur forestier français (° 19 mars 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1935</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1935</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6 août : Alexander Winkler, pianiste et un compositeur russe d’origine allemande (° 3 mars 1865).
 10 août : Marcel Noblot, peintre, dessinateur et caricaturiste français (° 26 juillet 1880).
 15 août : Paul Signac, peintre paysagiste français (° 11 novembre 1863).
 18 août : Spencer Bell, acteur américain (° 25 septembre 1887).
@@ -638,18 +927,86 @@
 Astrid, reine des Belges (° 17 novembre 1905).
 Oleksa Novakivskyi, professeur d'art et peintre russe puis soviétique (° 14 mars 1872).
 30 août : Henri Barbusse, romancier et journaliste français (° 17 mai 1873).
-31 août :  Georges William Thornley, peintre et lithographe impressionniste puis postimpressionniste français (° 2 mai 1857).
-Septembre
-1er septembre : Louis Lavauden, forestier et zoologiste français (° 19 juin 1881).
+31 août :  Georges William Thornley, peintre et lithographe impressionniste puis postimpressionniste français (° 2 mai 1857).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1935</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1935</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : Louis Lavauden, forestier et zoologiste français (° 19 juin 1881).
 8 septembre : Léopold Stevens, peintre, illustrateur et affichiste français (° 2 novembre 1860).
 13 septembre : Maria Gażycz, peintre, restauratrice d'art et religieuse polonaise (° 20 mars 1860).
 23 septembre : Hilja Pärssinen, femme politique finlandaise (° 13 juillet 1876).
 28 septembre : Hans Baluschek, peintre, illustrateur et écrivain allemand (° 9 mai 1870).
 ? septembre :
 Louis Ageron, peintre et aquarelliste français (° 28 avril 1865).
-Zoltán Palugyay, peintre austro-hongrois puis tchécoslovaque (° 9 novembre 1898).
-Octobre
-2 octobre : Frank B. Weeks, homme d'affaires et homme politique américain (° 20 janvier 1854).
+Zoltán Palugyay, peintre austro-hongrois puis tchécoslovaque (° 9 novembre 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1935</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1935</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Frank B. Weeks, homme d'affaires et homme politique américain (° 20 janvier 1854).
 4 octobre : Jean Béraud, peintre de genre et portraitiste français (° 12 janvier 1848).
 6 octobre : Frederic Hymen Cowen, pianiste, chef d'orchestre et compositeur britannique (° 29 janvier 1852).
 7 octobre : Émile Appay, peintre français (° 2 juin 1876).
@@ -659,18 +1016,86 @@
 15 octobre : Georges Tiret-Bognet, dessinateur, peintre et illustrateur français (° 15 janvier 1855).
 16 octobre : Hilda Lovisa Nordquist, actrice néerlandaise (° 6 avril 1881).
 22 octobre : Albert Doyen, musicien français (° 3 avril 1882).
-29 octobre : François Schommer, peintre académique, aquafortiste et décorateur français (° 20 novembre 1850).
-Novembre
-1er novembre : Émile Francqui, officier, explorateur, diplomate et homme d'État belge (° 25 juin 1863).
+29 octobre : François Schommer, peintre académique, aquafortiste et décorateur français (° 20 novembre 1850).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1935</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1935</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Émile Francqui, officier, explorateur, diplomate et homme d'État belge (° 25 juin 1863).
 8 novembre : Charles Kingsford Smith, aviateur australien (° 9 février 1897).
 10 novembre : Fernand-Louis Gottlob, peintre, illustrateur et graveur français (° 23 février 1873).
 19 novembre : Léon Du Bois, compositeur et organiste belge (° 10 janvier 1859).
 28 novembre : Georg Pauli, peintre suédois (° 2 juillet 1855).
 30 novembre :
 Fernando Pessoa, écrivain portugais (° 13 juin 1888).
-Adrian Stokes, peintre britannique (° 23 décembre 1854).
-Décembre
-1er décembre : Bernhard Schmidt, astronome et opticien estonien (° 11 avril 1879).
+Adrian Stokes, peintre britannique (° 23 décembre 1854).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1935</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1935</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1er décembre : Bernhard Schmidt, astronome et opticien estonien (° 11 avril 1879).
 4 décembre : Charles Richet, physiologiste français (° 26 août 1850).
 13 décembre : Victor Grignard, chimiste français (° 6 mai 1871).
 16 décembre : Percy Carlyle Gilchrist, chimiste et métallurgiste britannique (° 27 décembre 1851).
